--- a/democratic_primary/analysis/forecasts.xlsx
+++ b/democratic_primary/analysis/forecasts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/democratic_primary/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A227FA3-7568-8A4A-B228-0BC969DB0A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436FA956-57AE-5048-9DC6-99DB4B6420FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17800" yWindow="460" windowWidth="20600" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13140" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forecasts" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="47">
   <si>
     <t>state</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>forindex</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Illinois</t>
   </si>
 </sst>
 </file>
@@ -646,10 +655,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1005,11 +1015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1092,6 +1102,10 @@
       <c r="L2" t="s">
         <v>12</v>
       </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M65" si="0">A2&amp;C2</f>
+        <v>Iowa#10at10</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -1130,6 +1144,10 @@
       <c r="L3" t="s">
         <v>12</v>
       </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>IowaDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -1168,6 +1186,10 @@
       <c r="L4" t="s">
         <v>12</v>
       </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>IowaFiveThirtyEight Forecast</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -1206,6 +1228,10 @@
       <c r="L5" t="s">
         <v>12</v>
       </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>IowaJHK Forecasts</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -1244,6 +1270,10 @@
       <c r="L6" t="s">
         <v>12</v>
       </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>IowaLean Tossup</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
@@ -1282,6 +1312,10 @@
       <c r="L7" t="s">
         <v>12</v>
       </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>IowatheHOX</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -1320,6 +1354,10 @@
       <c r="L8" t="s">
         <v>12</v>
       </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>New Hampshire#10at10</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
@@ -1358,6 +1396,10 @@
       <c r="L9" t="s">
         <v>12</v>
       </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>New HampshireDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
@@ -1396,6 +1438,10 @@
       <c r="L10" t="s">
         <v>12</v>
       </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>New HampshireFiveThirtyEight Forecast</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
@@ -1434,6 +1480,10 @@
       <c r="L11" t="s">
         <v>12</v>
       </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>New HampshireJHK Forecasts</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -1472,6 +1522,10 @@
       <c r="L12" t="s">
         <v>12</v>
       </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>New HampshireLean Tossup</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
@@ -1510,6 +1564,10 @@
       <c r="L13" t="s">
         <v>12</v>
       </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>New HampshiretheHOX</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
@@ -1548,6 +1606,10 @@
       <c r="L14" t="s">
         <v>12</v>
       </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>Nevada#10at10</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
@@ -1586,6 +1648,10 @@
       <c r="L15" t="s">
         <v>12</v>
       </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>NevadaDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
@@ -1624,8 +1690,12 @@
       <c r="L16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>NevadaFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1662,8 +1732,12 @@
       <c r="L17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>NevadaJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1700,8 +1774,12 @@
       <c r="L18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>NevadaLean Tossup</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1738,8 +1816,12 @@
       <c r="L19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>NevadatheHOX</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1776,8 +1858,12 @@
       <c r="L20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>South Carolina#10at10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1814,8 +1900,12 @@
       <c r="L21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>South CarolinaDDHQ/0ptimus/Ozy</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1852,8 +1942,12 @@
       <c r="L22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>South CarolinaFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1890,8 +1984,12 @@
       <c r="L23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>South CarolinaJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1928,8 +2026,12 @@
       <c r="L24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>South CarolinaLean Tossup</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1966,8 +2068,12 @@
       <c r="L25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>South CarolinatheHOX</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2004,8 +2110,12 @@
       <c r="L26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>AlabamaJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2042,8 +2152,12 @@
       <c r="L27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>ArkansasJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2080,8 +2194,12 @@
       <c r="L28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>CaliforniaJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2118,8 +2236,12 @@
       <c r="L29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v>ColoradoJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2156,8 +2278,12 @@
       <c r="L30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>MaineJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2320,12 @@
       <c r="L31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>MassachusettsJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2232,8 +2362,12 @@
       <c r="L32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>MinnesotaJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2270,8 +2404,12 @@
       <c r="L33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v>North CarolinaJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2308,8 +2446,12 @@
       <c r="L34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v>OklahomaJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2346,8 +2488,12 @@
       <c r="L35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>TennesseeJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -2384,8 +2530,12 @@
       <c r="L36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v>TexasJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2422,8 +2572,12 @@
       <c r="L37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>UtahJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -2460,8 +2614,12 @@
       <c r="L38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>VermontJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -2498,8 +2656,12 @@
       <c r="L39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v>VirginiaJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2536,8 +2698,12 @@
       <c r="L40" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v>AlabamaFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2574,8 +2740,12 @@
       <c r="L41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v>ArkansasFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -2612,8 +2782,12 @@
       <c r="L42" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v>CaliforniaFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -2650,8 +2824,12 @@
       <c r="L43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v>ColoradoFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -2688,8 +2866,12 @@
       <c r="L44" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v>MaineFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -2726,8 +2908,12 @@
       <c r="L45" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v>MassachusettsFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -2764,8 +2950,12 @@
       <c r="L46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" t="str">
+        <f t="shared" si="0"/>
+        <v>MinnesotaFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -2802,8 +2992,12 @@
       <c r="L47" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" t="str">
+        <f t="shared" si="0"/>
+        <v>North CarolinaFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -2840,8 +3034,12 @@
       <c r="L48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" t="str">
+        <f t="shared" si="0"/>
+        <v>OklahomaFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -2878,8 +3076,12 @@
       <c r="L49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" t="str">
+        <f t="shared" si="0"/>
+        <v>TennesseeFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -2916,8 +3118,12 @@
       <c r="L50" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" t="str">
+        <f t="shared" si="0"/>
+        <v>TexasFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -2954,8 +3160,12 @@
       <c r="L51" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v>UtahFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2992,8 +3202,12 @@
       <c r="L52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v>VermontFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -3030,8 +3244,12 @@
       <c r="L53" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" t="str">
+        <f t="shared" si="0"/>
+        <v>VirginiaFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -3068,8 +3286,12 @@
       <c r="L54" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" t="str">
+        <f t="shared" si="0"/>
+        <v>AlabamatheHOX</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -3106,8 +3328,12 @@
       <c r="L55" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" t="str">
+        <f t="shared" si="0"/>
+        <v>ArkansastheHOX</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -3144,8 +3370,12 @@
       <c r="L56" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" t="str">
+        <f t="shared" si="0"/>
+        <v>CaliforniatheHOX</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -3182,8 +3412,12 @@
       <c r="L57" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" t="str">
+        <f t="shared" si="0"/>
+        <v>ColoradotheHOX</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3220,8 +3454,12 @@
       <c r="L58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" t="str">
+        <f t="shared" si="0"/>
+        <v>MainetheHOX</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -3258,8 +3496,12 @@
       <c r="L59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" t="str">
+        <f t="shared" si="0"/>
+        <v>MassachusettstheHOX</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -3296,8 +3538,12 @@
       <c r="L60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" t="str">
+        <f t="shared" si="0"/>
+        <v>MinnesotatheHOX</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -3334,8 +3580,12 @@
       <c r="L61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" t="str">
+        <f t="shared" si="0"/>
+        <v>North CarolinatheHOX</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -3372,8 +3622,12 @@
       <c r="L62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" t="str">
+        <f t="shared" si="0"/>
+        <v>OklahomatheHOX</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -3410,8 +3664,12 @@
       <c r="L63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" t="str">
+        <f t="shared" si="0"/>
+        <v>TennesseetheHOX</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -3448,8 +3706,12 @@
       <c r="L64" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" t="str">
+        <f t="shared" si="0"/>
+        <v>TexastheHOX</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -3486,8 +3748,12 @@
       <c r="L65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" t="str">
+        <f t="shared" si="0"/>
+        <v>UtahtheHOX</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -3524,8 +3790,12 @@
       <c r="L66" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" t="str">
+        <f t="shared" ref="M66:M110" si="1">A66&amp;C66</f>
+        <v>VermonttheHOX</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -3562,8 +3832,12 @@
       <c r="L67" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" t="str">
+        <f t="shared" si="1"/>
+        <v>VirginiatheHOX</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -3600,8 +3874,12 @@
       <c r="L68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" t="str">
+        <f t="shared" si="1"/>
+        <v>Alabama#10at10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -3638,8 +3916,12 @@
       <c r="L69" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" t="str">
+        <f t="shared" si="1"/>
+        <v>Arkansas#10at10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -3676,8 +3958,12 @@
       <c r="L70" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" t="str">
+        <f t="shared" si="1"/>
+        <v>California#10at10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -3714,8 +4000,12 @@
       <c r="L71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" t="str">
+        <f t="shared" si="1"/>
+        <v>Colorado#10at10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -3752,8 +4042,12 @@
       <c r="L72" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72" t="str">
+        <f t="shared" si="1"/>
+        <v>Maine#10at10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -3790,8 +4084,12 @@
       <c r="L73" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" t="str">
+        <f t="shared" si="1"/>
+        <v>Massachusetts#10at10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -3828,8 +4126,12 @@
       <c r="L74" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74" t="str">
+        <f t="shared" si="1"/>
+        <v>Minnesota#10at10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -3866,8 +4168,12 @@
       <c r="L75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75" t="str">
+        <f t="shared" si="1"/>
+        <v>North Carolina#10at10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>29</v>
       </c>
@@ -3904,8 +4210,12 @@
       <c r="L76" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76" t="str">
+        <f t="shared" si="1"/>
+        <v>Oklahoma#10at10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -3942,8 +4252,12 @@
       <c r="L77" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee#10at10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -3980,8 +4294,12 @@
       <c r="L78" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" t="str">
+        <f t="shared" si="1"/>
+        <v>Texas#10at10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>32</v>
       </c>
@@ -4018,8 +4336,12 @@
       <c r="L79" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" t="str">
+        <f t="shared" si="1"/>
+        <v>Utah#10at10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -4056,8 +4378,12 @@
       <c r="L80" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" t="str">
+        <f t="shared" si="1"/>
+        <v>Vermont#10at10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -4094,8 +4420,12 @@
       <c r="L81" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81" t="str">
+        <f t="shared" si="1"/>
+        <v>Virginia#10at10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -4132,8 +4462,12 @@
       <c r="L82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82" t="str">
+        <f t="shared" si="1"/>
+        <v>AlabamaLean Tossup</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -4170,8 +4504,12 @@
       <c r="L83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83" t="str">
+        <f t="shared" si="1"/>
+        <v>ArkansasLean Tossup</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -4208,8 +4546,12 @@
       <c r="L84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" t="str">
+        <f t="shared" si="1"/>
+        <v>CaliforniaLean Tossup</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -4246,8 +4588,12 @@
       <c r="L85" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85" t="str">
+        <f t="shared" si="1"/>
+        <v>ColoradoLean Tossup</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -4284,8 +4630,12 @@
       <c r="L86" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86" t="str">
+        <f t="shared" si="1"/>
+        <v>MaineLean Tossup</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -4322,8 +4672,12 @@
       <c r="L87" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87" t="str">
+        <f t="shared" si="1"/>
+        <v>MassachusettsLean Tossup</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -4360,8 +4714,12 @@
       <c r="L88" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" t="str">
+        <f t="shared" si="1"/>
+        <v>MinnesotaLean Tossup</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -4398,8 +4756,12 @@
       <c r="L89" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89" t="str">
+        <f t="shared" si="1"/>
+        <v>North CarolinaLean Tossup</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -4436,8 +4798,12 @@
       <c r="L90" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90" t="str">
+        <f t="shared" si="1"/>
+        <v>OklahomaLean Tossup</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -4474,8 +4840,12 @@
       <c r="L91" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91" t="str">
+        <f t="shared" si="1"/>
+        <v>TennesseeLean Tossup</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -4512,8 +4882,12 @@
       <c r="L92" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92" t="str">
+        <f t="shared" si="1"/>
+        <v>TexasLean Tossup</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -4550,8 +4924,12 @@
       <c r="L93" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93" t="str">
+        <f t="shared" si="1"/>
+        <v>UtahLean Tossup</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -4588,8 +4966,12 @@
       <c r="L94" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94" t="str">
+        <f t="shared" si="1"/>
+        <v>VermontLean Tossup</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>34</v>
       </c>
@@ -4626,8 +5008,12 @@
       <c r="L95" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95" t="str">
+        <f t="shared" si="1"/>
+        <v>VirginiaLean Tossup</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -4663,6 +5049,10 @@
       </c>
       <c r="L96" t="s">
         <v>12</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="1"/>
+        <v>AlabamaDDHQ/0ptimus/Ozy</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4702,6 +5092,10 @@
       <c r="L97" t="s">
         <v>12</v>
       </c>
+      <c r="M97" t="str">
+        <f t="shared" si="1"/>
+        <v>ArkansasDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
@@ -4740,6 +5134,10 @@
       <c r="L98" t="s">
         <v>12</v>
       </c>
+      <c r="M98" t="str">
+        <f t="shared" si="1"/>
+        <v>CaliforniaDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
@@ -4778,6 +5176,10 @@
       <c r="L99" t="s">
         <v>12</v>
       </c>
+      <c r="M99" t="str">
+        <f t="shared" si="1"/>
+        <v>ColoradoDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
@@ -4816,6 +5218,10 @@
       <c r="L100" t="s">
         <v>12</v>
       </c>
+      <c r="M100" t="str">
+        <f t="shared" si="1"/>
+        <v>MaineDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
@@ -4854,6 +5260,10 @@
       <c r="L101" t="s">
         <v>12</v>
       </c>
+      <c r="M101" t="str">
+        <f t="shared" si="1"/>
+        <v>MassachusettsDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
@@ -4892,6 +5302,10 @@
       <c r="L102" t="s">
         <v>12</v>
       </c>
+      <c r="M102" t="str">
+        <f t="shared" si="1"/>
+        <v>MinnesotaDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
@@ -4930,6 +5344,10 @@
       <c r="L103" t="s">
         <v>12</v>
       </c>
+      <c r="M103" t="str">
+        <f t="shared" si="1"/>
+        <v>North CarolinaDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
@@ -4968,6 +5386,10 @@
       <c r="L104" t="s">
         <v>12</v>
       </c>
+      <c r="M104" t="str">
+        <f t="shared" si="1"/>
+        <v>OklahomaDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
@@ -5006,6 +5428,10 @@
       <c r="L105" t="s">
         <v>12</v>
       </c>
+      <c r="M105" t="str">
+        <f t="shared" si="1"/>
+        <v>TennesseeDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
@@ -5044,6 +5470,10 @@
       <c r="L106" t="s">
         <v>12</v>
       </c>
+      <c r="M106" t="str">
+        <f t="shared" si="1"/>
+        <v>TexasDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
@@ -5082,6 +5512,10 @@
       <c r="L107" t="s">
         <v>12</v>
       </c>
+      <c r="M107" t="str">
+        <f t="shared" si="1"/>
+        <v>UtahDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
@@ -5120,6 +5554,10 @@
       <c r="L108" t="s">
         <v>12</v>
       </c>
+      <c r="M108" t="str">
+        <f t="shared" si="1"/>
+        <v>VermontDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="109" spans="1:13" s="1" customFormat="1">
       <c r="A109" s="1" t="s">
@@ -5158,6 +5596,10 @@
       <c r="L109" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="M109" t="str">
+        <f t="shared" si="1"/>
+        <v>VirginiaDDHQ/0ptimus/Ozy</v>
+      </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
@@ -5191,11 +5633,11 @@
         <v>12</v>
       </c>
       <c r="K110">
-        <f t="shared" ref="K110:K117" si="0">D110-F110</f>
+        <f t="shared" ref="K110:K117" si="2">D110-F110</f>
         <v>16</v>
       </c>
       <c r="L110" t="str">
-        <f t="shared" ref="L110:L117" si="1">IF(K110&gt;0,"biden","sanders")</f>
+        <f t="shared" ref="L110:L117" si="3">IF(K110&gt;0,"biden","sanders")</f>
         <v>biden</v>
       </c>
       <c r="M110" t="str">
@@ -5235,15 +5677,15 @@
         <v>12</v>
       </c>
       <c r="K111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.3999999999999986</v>
       </c>
       <c r="L111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>sanders</v>
       </c>
       <c r="M111" t="str">
-        <f t="shared" ref="M111:M140" si="2">A111&amp;C111</f>
+        <f t="shared" ref="M111:M140" si="4">A111&amp;C111</f>
         <v>WashingtontheHOX</v>
       </c>
     </row>
@@ -5279,15 +5721,15 @@
         <v>12</v>
       </c>
       <c r="K112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.300000000000004</v>
       </c>
       <c r="L112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>biden</v>
       </c>
       <c r="M112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>MissouritheHOX</v>
       </c>
     </row>
@@ -5323,15 +5765,15 @@
         <v>12</v>
       </c>
       <c r="K113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45.400000000000006</v>
       </c>
       <c r="L113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>biden</v>
       </c>
       <c r="M113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>MississippitheHOX</v>
       </c>
     </row>
@@ -5367,15 +5809,15 @@
         <v>12</v>
       </c>
       <c r="K114">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10.300000000000004</v>
       </c>
       <c r="L114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>biden</v>
       </c>
       <c r="M114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>IdahotheHOX</v>
       </c>
     </row>
@@ -5411,15 +5853,15 @@
         <v>12</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L115" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>biden</v>
       </c>
       <c r="M115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>North DakotatheHOX</v>
       </c>
     </row>
@@ -5455,15 +5897,15 @@
         <v>12</v>
       </c>
       <c r="K116" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.5999999999999943</v>
       </c>
       <c r="L116" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>sanders</v>
       </c>
       <c r="M116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Michigan#10at10</v>
       </c>
     </row>
@@ -5499,15 +5941,15 @@
         <v>12</v>
       </c>
       <c r="K117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26.4</v>
       </c>
       <c r="L117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>biden</v>
       </c>
       <c r="M117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>MichiganLean Tossup</v>
       </c>
     </row>
@@ -5543,15 +5985,15 @@
         <v>12</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K122" si="3">D118-F118</f>
+        <f t="shared" ref="K118:K122" si="5">D118-F118</f>
         <v>13.5</v>
       </c>
       <c r="L118" t="str">
-        <f t="shared" ref="L118:L140" si="4">IF(K118&gt;0,"biden","sanders")</f>
+        <f t="shared" ref="L118:L140" si="6">IF(K118&gt;0,"biden","sanders")</f>
         <v>biden</v>
       </c>
       <c r="M118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>WashingtonLean Tossup</v>
       </c>
     </row>
@@ -5587,15 +6029,15 @@
         <v>12</v>
       </c>
       <c r="K119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
       <c r="L119" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M119" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M119" t="str">
-        <f t="shared" si="2"/>
         <v>MissouriLean Tossup</v>
       </c>
     </row>
@@ -5631,15 +6073,15 @@
         <v>12</v>
       </c>
       <c r="K120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55.3</v>
       </c>
       <c r="L120" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M120" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M120" t="str">
-        <f t="shared" si="2"/>
         <v>MississippiLean Tossup</v>
       </c>
     </row>
@@ -5675,15 +6117,15 @@
         <v>12</v>
       </c>
       <c r="K121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
       <c r="L121" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M121" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M121" t="str">
-        <f t="shared" si="2"/>
         <v>IdahoLean Tossup</v>
       </c>
     </row>
@@ -5719,15 +6161,15 @@
         <v>12</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.9</v>
       </c>
       <c r="L122" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M122" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M122" t="str">
-        <f t="shared" si="2"/>
         <v>North DakotaLean Tossup</v>
       </c>
     </row>
@@ -5771,7 +6213,7 @@
         <v>biden</v>
       </c>
       <c r="M123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>MichiganDDHQ/0ptimus/Ozy</v>
       </c>
     </row>
@@ -5807,15 +6249,15 @@
         <v>12</v>
       </c>
       <c r="K124">
-        <f t="shared" ref="K124:K128" si="5">D124-F124</f>
+        <f t="shared" ref="K124:K128" si="7">D124-F124</f>
         <v>12</v>
       </c>
       <c r="L124" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M124" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M124" t="str">
-        <f t="shared" si="2"/>
         <v>WashingtonDDHQ/0ptimus/Ozy</v>
       </c>
     </row>
@@ -5851,15 +6293,15 @@
         <v>12</v>
       </c>
       <c r="K125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="L125" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M125" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M125" t="str">
-        <f t="shared" si="2"/>
         <v>MissouriDDHQ/0ptimus/Ozy</v>
       </c>
     </row>
@@ -5895,15 +6337,15 @@
         <v>12</v>
       </c>
       <c r="K126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="L126" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M126" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M126" t="str">
-        <f t="shared" si="2"/>
         <v>MississippiDDHQ/0ptimus/Ozy</v>
       </c>
     </row>
@@ -5939,15 +6381,15 @@
         <v>12</v>
       </c>
       <c r="K127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="L127" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M127" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M127" t="str">
-        <f t="shared" si="2"/>
         <v>IdahoDDHQ/0ptimus/Ozy</v>
       </c>
     </row>
@@ -5983,15 +6425,15 @@
         <v>12</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="L128" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M128" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M128" t="str">
-        <f t="shared" si="2"/>
         <v>North DakotaDDHQ/0ptimus/Ozy</v>
       </c>
     </row>
@@ -6035,7 +6477,7 @@
         <v>biden</v>
       </c>
       <c r="M129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>MichiganFiveThirtyEight Forecast</v>
       </c>
     </row>
@@ -6071,15 +6513,15 @@
         <v>12</v>
       </c>
       <c r="K130">
-        <f t="shared" ref="K130:K134" si="6">D130-F130</f>
+        <f t="shared" ref="K130:K134" si="8">D130-F130</f>
         <v>3</v>
       </c>
       <c r="L130" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M130" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M130" t="str">
-        <f t="shared" si="2"/>
         <v>WashingtonFiveThirtyEight Forecast</v>
       </c>
     </row>
@@ -6115,15 +6557,15 @@
         <v>12</v>
       </c>
       <c r="K131">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="L131" t="str">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="L131" t="str">
+        <v>biden</v>
+      </c>
+      <c r="M131" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M131" t="str">
-        <f t="shared" si="2"/>
         <v>MissouriFiveThirtyEight Forecast</v>
       </c>
     </row>
@@ -6159,15 +6601,15 @@
         <v>12</v>
       </c>
       <c r="K132">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="L132" t="str">
         <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-      <c r="L132" t="str">
+        <v>biden</v>
+      </c>
+      <c r="M132" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M132" t="str">
-        <f t="shared" si="2"/>
         <v>MississippiFiveThirtyEight Forecast</v>
       </c>
     </row>
@@ -6203,15 +6645,15 @@
         <v>12</v>
       </c>
       <c r="K133">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="L133" t="str">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="L133" t="str">
+        <v>biden</v>
+      </c>
+      <c r="M133" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M133" t="str">
-        <f t="shared" si="2"/>
         <v>IdahoFiveThirtyEight Forecast</v>
       </c>
     </row>
@@ -6247,15 +6689,15 @@
         <v>12</v>
       </c>
       <c r="K134" s="1">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="L134" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="L134" s="1" t="str">
+        <v>biden</v>
+      </c>
+      <c r="M134" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M134" t="str">
-        <f t="shared" si="2"/>
         <v>North DakotaFiveThirtyEight Forecast</v>
       </c>
     </row>
@@ -6299,7 +6741,7 @@
         <v>biden</v>
       </c>
       <c r="M135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>MichiganJHK Forecasts</v>
       </c>
     </row>
@@ -6335,15 +6777,15 @@
         <v>12</v>
       </c>
       <c r="K136">
-        <f t="shared" ref="K136:K140" si="7">D136-F136</f>
+        <f t="shared" ref="K136:K140" si="9">D136-F136</f>
         <v>9.4000000000000057</v>
       </c>
       <c r="L136" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M136" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M136" t="str">
-        <f t="shared" si="2"/>
         <v>WashingtonJHK Forecasts</v>
       </c>
     </row>
@@ -6379,15 +6821,15 @@
         <v>12</v>
       </c>
       <c r="K137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="L137" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M137" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M137" t="str">
-        <f t="shared" si="2"/>
         <v>MissouriJHK Forecasts</v>
       </c>
     </row>
@@ -6423,15 +6865,15 @@
         <v>12</v>
       </c>
       <c r="K138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="L138" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M138" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M138" t="str">
-        <f t="shared" si="2"/>
         <v>MississippiJHK Forecasts</v>
       </c>
     </row>
@@ -6467,15 +6909,15 @@
         <v>12</v>
       </c>
       <c r="K139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.5999999999999943</v>
       </c>
       <c r="L139" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M139" t="str">
         <f t="shared" si="4"/>
-        <v>biden</v>
-      </c>
-      <c r="M139" t="str">
-        <f t="shared" si="2"/>
         <v>IdahoJHK Forecasts</v>
       </c>
     </row>
@@ -6511,16 +6953,544 @@
         <v>12</v>
       </c>
       <c r="K140" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21.400000000000006</v>
       </c>
       <c r="L140" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>biden</v>
+      </c>
+      <c r="M140" t="str">
         <f t="shared" si="4"/>
+        <v>North DakotaJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141">
+        <v>60.3</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" t="s">
+        <v>12</v>
+      </c>
+      <c r="J141" t="s">
+        <v>12</v>
+      </c>
+      <c r="K141">
+        <f t="shared" ref="K141:K152" si="10">D141-F141</f>
+        <v>23</v>
+      </c>
+      <c r="L141" t="str">
+        <f t="shared" ref="L141:L152" si="11">IF(K141&gt;0,"biden","sanders")</f>
         <v>biden</v>
       </c>
-      <c r="M140" t="str">
-        <f t="shared" si="2"/>
-        <v>North DakotaJHK Forecasts</v>
+      <c r="M141" t="str">
+        <f t="shared" ref="M141:M152" si="12">A141&amp;C141</f>
+        <v>ArizonaJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142">
+        <v>71.5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142">
+        <v>25.5</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" t="s">
+        <v>12</v>
+      </c>
+      <c r="J142" t="s">
+        <v>12</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="L142" t="str">
+        <f t="shared" si="11"/>
+        <v>biden</v>
+      </c>
+      <c r="M142" t="str">
+        <f t="shared" si="12"/>
+        <v>FloridaJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="1">
+        <v>63.7</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K143" s="1">
+        <f t="shared" si="10"/>
+        <v>30.400000000000006</v>
+      </c>
+      <c r="L143" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>biden</v>
+      </c>
+      <c r="M143" t="str">
+        <f t="shared" si="12"/>
+        <v>IllinoisJHK Forecasts</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="3">
+        <v>58.9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="3">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144" t="s">
+        <v>12</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="10"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L144" t="str">
+        <f t="shared" si="11"/>
+        <v>biden</v>
+      </c>
+      <c r="M144" t="str">
+        <f t="shared" si="12"/>
+        <v>ArizonaLean Tossup</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" t="s">
+        <v>12</v>
+      </c>
+      <c r="J145" t="s">
+        <v>12</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="10"/>
+        <v>54.599999999999994</v>
+      </c>
+      <c r="L145" t="str">
+        <f t="shared" si="11"/>
+        <v>biden</v>
+      </c>
+      <c r="M145" t="str">
+        <f t="shared" si="12"/>
+        <v>FloridaLean Tossup</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K146" s="1">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="L146" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>biden</v>
+      </c>
+      <c r="M146" t="str">
+        <f t="shared" si="12"/>
+        <v>IllinoisLean Tossup</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="3">
+        <v>59</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="3">
+        <v>34</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" t="s">
+        <v>12</v>
+      </c>
+      <c r="J147" t="s">
+        <v>12</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="L147" t="str">
+        <f t="shared" si="11"/>
+        <v>biden</v>
+      </c>
+      <c r="M147" t="str">
+        <f t="shared" si="12"/>
+        <v>ArizonaFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" t="s">
+        <v>44</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148">
+        <v>67</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148">
+        <v>28</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" t="s">
+        <v>12</v>
+      </c>
+      <c r="J148" t="s">
+        <v>12</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="L148" t="str">
+        <f t="shared" si="11"/>
+        <v>biden</v>
+      </c>
+      <c r="M148" t="str">
+        <f t="shared" si="12"/>
+        <v>FloridaFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="1">
+        <v>66</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="1">
+        <v>30</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K149" s="1">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="L149" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>biden</v>
+      </c>
+      <c r="M149" t="str">
+        <f t="shared" si="12"/>
+        <v>IllinoisFiveThirtyEight Forecast</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" t="s">
+        <v>45</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="3">
+        <v>62.1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="3">
+        <v>36.1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" t="s">
+        <v>12</v>
+      </c>
+      <c r="J150" t="s">
+        <v>12</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="L150" t="str">
+        <f t="shared" si="11"/>
+        <v>biden</v>
+      </c>
+      <c r="M150" t="str">
+        <f t="shared" si="12"/>
+        <v>ArizonaDDHQ/0ptimus/Ozy</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="3">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E151" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="3">
+        <v>29.4</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" t="s">
+        <v>12</v>
+      </c>
+      <c r="J151" t="s">
+        <v>12</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="10"/>
+        <v>39.199999999999996</v>
+      </c>
+      <c r="L151" t="str">
+        <f t="shared" si="11"/>
+        <v>biden</v>
+      </c>
+      <c r="M151" t="str">
+        <f t="shared" si="12"/>
+        <v>FloridaDDHQ/0ptimus/Ozy</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="1">
+        <v>60</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="1">
+        <v>36</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K152" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="L152" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>biden</v>
+      </c>
+      <c r="M152" t="str">
+        <f t="shared" si="12"/>
+        <v>IllinoisDDHQ/0ptimus/Ozy</v>
       </c>
     </row>
   </sheetData>
